--- a/src/test/resources/integration/Installed Software_20220914.xlsx
+++ b/src/test/resources/integration/Installed Software_20220914.xlsx
@@ -7,12 +7,29 @@
   </bookViews>
   <sheets>
     <sheet name="Vendor Not Found" r:id="rId3" sheetId="1"/>
+    <sheet name="Microsoft" r:id="rId4" sheetId="2"/>
+    <sheet name="Citrix Systems, Inc." r:id="rId5" sheetId="3"/>
+    <sheet name="ConnectWise" r:id="rId6" sheetId="4"/>
+    <sheet name="Cisco Webex LLC" r:id="rId7" sheetId="5"/>
+    <sheet name="SAP" r:id="rId8" sheetId="6"/>
+    <sheet name="Cisco Systems, Inc." r:id="rId9" sheetId="7"/>
+    <sheet name="empty" r:id="rId10" sheetId="8"/>
+    <sheet name="Fortinet Technologies Inc" r:id="rId11" sheetId="9"/>
+    <sheet name="Oracle Corporation" r:id="rId12" sheetId="10"/>
+    <sheet name="Test Vendor 1" r:id="rId13" sheetId="11"/>
+    <sheet name="Test Vendor 2" r:id="rId14" sheetId="12"/>
+    <sheet name="Waves Audio Ltd." r:id="rId15" sheetId="13"/>
+    <sheet name="CheckPoint" r:id="rId16" sheetId="14"/>
+    <sheet name="Adobe Systems Incorporated" r:id="rId17" sheetId="15"/>
+    <sheet name="Citrix Systems, Inc" r:id="rId18" sheetId="16"/>
+    <sheet name="Check Point Software Technologi" r:id="rId19" sheetId="17"/>
+    <sheet name="Business Objects" r:id="rId20" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="99">
   <si>
     <t/>
   </si>
@@ -30,6 +47,285 @@
   </si>
   <si>
     <t>Installed Asset IDs</t>
+  </si>
+  <si>
+    <t>Microsoft Office Access database engine 2007 (English)</t>
+  </si>
+  <si>
+    <t>{90120000-00D1-0409-0000-0000000FF1CE}</t>
+  </si>
+  <si>
+    <t>12.0.4518.1031</t>
+  </si>
+  <si>
+    <t>Microsoft_1663143354495</t>
+  </si>
+  <si>
+    <t>IntTest BadApps-Bad-Apps</t>
+  </si>
+  <si>
+    <t>Cisco AnyConnect Secure Mobility Client</t>
+  </si>
+  <si>
+    <t>{C2324E3B-0AED-4413-82FA-F638913C264A}</t>
+  </si>
+  <si>
+    <t>4.9.01095</t>
+  </si>
+  <si>
+    <t>Cisco_1663143354622</t>
+  </si>
+  <si>
+    <t>FortiClient</t>
+  </si>
+  <si>
+    <t>{FE1638FD-CCFF-4C7E-9064-AA2B68C9094C}</t>
+  </si>
+  <si>
+    <t>6.0.7.0243</t>
+  </si>
+  <si>
+    <t>Fortinet_1663143354774</t>
+  </si>
+  <si>
+    <t>Citrix Workspace(DV)</t>
+  </si>
+  <si>
+    <t>{BD45A07E-C01D-4815-9F74-794943E44851}</t>
+  </si>
+  <si>
+    <t>20.11.0.26</t>
+  </si>
+  <si>
+    <t>Citrix_1663143354845</t>
+  </si>
+  <si>
+    <t>Citrix Authentication Manager</t>
+  </si>
+  <si>
+    <t>{8CA6F29E-DF02-4519-B33C-9AC9935D28D9}</t>
+  </si>
+  <si>
+    <t>20.11.0.12</t>
+  </si>
+  <si>
+    <t>Citrix_1663143354937</t>
+  </si>
+  <si>
+    <t>{8CA6F29E-DF02-4519-B33C-9AC9935D28E9}</t>
+  </si>
+  <si>
+    <t>20.11.0.13</t>
+  </si>
+  <si>
+    <t>Citrix_1663143354998</t>
+  </si>
+  <si>
+    <t>Microsoft Visual C++ 2019 X86 Minimum Runtime - 14.24.28127</t>
+  </si>
+  <si>
+    <t>{2E72FA1F-BADB-4337-B8AE-F7C17EC57D1D}</t>
+  </si>
+  <si>
+    <t>14.24.28127</t>
+  </si>
+  <si>
+    <t>Microsoft_1663143355071</t>
+  </si>
+  <si>
+    <t>Java Auto Updater</t>
+  </si>
+  <si>
+    <t>{4A03706F-666A-4037-7777-5F2748764D10}</t>
+  </si>
+  <si>
+    <t>2.8.231.11</t>
+  </si>
+  <si>
+    <t>Oracle_1663143355141</t>
+  </si>
+  <si>
+    <t>PHP Manager 1.4 for IIS 10</t>
+  </si>
+  <si>
+    <t>{E851486F-1FE2-44F0-85ED-F969088A68EE}</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>empty_1663143355235</t>
+  </si>
+  <si>
+    <t>Test App duplicate ID</t>
+  </si>
+  <si>
+    <t>1.0.2.2</t>
+  </si>
+  <si>
+    <t>Test_1663143355286</t>
+  </si>
+  <si>
+    <t>Test App 2</t>
+  </si>
+  <si>
+    <t>{4A03706F-666A-4037-9177-5F2748764D10}</t>
+  </si>
+  <si>
+    <t>9.4.5</t>
+  </si>
+  <si>
+    <t>Test_1663143355351</t>
+  </si>
+  <si>
+    <t>IntTest BadApps-Bad-AppsIntTest GoodApps-DESKTOP-1GTK0TB;</t>
+  </si>
+  <si>
+    <t>Maxx Audio Installer (x64)</t>
+  </si>
+  <si>
+    <t>{307032B2-6AF2-46D7-B933-62438DEB2B9A}</t>
+  </si>
+  <si>
+    <t>2.6.8627.1</t>
+  </si>
+  <si>
+    <t>Waves_1663143355558</t>
+  </si>
+  <si>
+    <t>IntTest GoodApps-DESKTOP-1GTK0TB</t>
+  </si>
+  <si>
+    <t>Citrix WorkSpace Browser</t>
+  </si>
+  <si>
+    <t>{22123B83-0475-4A1C-B658-CDAA196486F2}</t>
+  </si>
+  <si>
+    <t>20.12.0.10</t>
+  </si>
+  <si>
+    <t>Citrix_1663143355654</t>
+  </si>
+  <si>
+    <t>Microsoft Web Platform Installer 5.1</t>
+  </si>
+  <si>
+    <t>{4D38C3A3-B685-4AB5-BD6D-FD88BCED5805}</t>
+  </si>
+  <si>
+    <t>5.1.51515.0</t>
+  </si>
+  <si>
+    <t>Microsoft_1663143355723</t>
+  </si>
+  <si>
+    <t>Java 8 Update 231</t>
+  </si>
+  <si>
+    <t>{26A24AE4-039D-4CA4-87B4-2F32180231F0}</t>
+  </si>
+  <si>
+    <t>8.0.2310.11</t>
+  </si>
+  <si>
+    <t>Oracle_1663143355808</t>
+  </si>
+  <si>
+    <t>Check Point SSL Network Extender Service</t>
+  </si>
+  <si>
+    <t>{588ec085-272f-4469-86bc-10643aea6d81}</t>
+  </si>
+  <si>
+    <t>7.01.0000</t>
+  </si>
+  <si>
+    <t>CheckPoint_1663143355878</t>
+  </si>
+  <si>
+    <t>Adobe Acrobat Reader DC</t>
+  </si>
+  <si>
+    <t>{AC76BA86-7AD7-1033-7B44-AC0F074E4100}</t>
+  </si>
+  <si>
+    <t>22.002.20191</t>
+  </si>
+  <si>
+    <t>Adobe_1663143355958</t>
+  </si>
+  <si>
+    <t>Citrix Screen Casting for Windows</t>
+  </si>
+  <si>
+    <t>{4D46B3A6-67F5-4385-86D2-8E769EA07827}</t>
+  </si>
+  <si>
+    <t>19.11.100.48</t>
+  </si>
+  <si>
+    <t>Citrix_1663143356032</t>
+  </si>
+  <si>
+    <t>Check Point VPN</t>
+  </si>
+  <si>
+    <t>{5E867838-8E7D-4B0D-8D7F-46698BC6414D}</t>
+  </si>
+  <si>
+    <t>98.61.1703</t>
+  </si>
+  <si>
+    <t>Check_1663143356094</t>
+  </si>
+  <si>
+    <t>Crystal Reports XI Release 2</t>
+  </si>
+  <si>
+    <t>{94FB0978-D094-40C7-91D7-834D39220D4A}</t>
+  </si>
+  <si>
+    <t>11.5.0.31327</t>
+  </si>
+  <si>
+    <t>Business_1663143356176</t>
+  </si>
+  <si>
+    <t>ConnectWise Manage Client 64-bit</t>
+  </si>
+  <si>
+    <t>{836AC60A-957F-49A2-9235-2538FB2B490F}</t>
+  </si>
+  <si>
+    <t>20.3.1</t>
+  </si>
+  <si>
+    <t>ConnectWise_1663143356240</t>
+  </si>
+  <si>
+    <t>Cisco Webex Meetings</t>
+  </si>
+  <si>
+    <t>{90B2724A-9C22-4C6C-B111-5D21E348ADF3}</t>
+  </si>
+  <si>
+    <t>39.9.2.116</t>
+  </si>
+  <si>
+    <t>Cisco_1663143356297</t>
+  </si>
+  <si>
+    <t>SAP Crystal Reports runtime engine for .NET Framework (64-bit)</t>
+  </si>
+  <si>
+    <t>{8055CFEA-3871-4C76-A321-E32F63637CC4}</t>
+  </si>
+  <si>
+    <t>13.0.15.1840</t>
+  </si>
+  <si>
+    <t>SAP_1663143356352</t>
   </si>
 </sst>
 </file>
@@ -100,4 +396,905 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>